--- a/graph.xlsx
+++ b/graph.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -52,6 +52,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00006400"/>
         <bgColor rgb="00006400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002F4F4F"/>
+        <bgColor rgb="002F4F4F"/>
       </patternFill>
     </fill>
     <fill>
@@ -79,7 +85,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -88,6 +94,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2517,7 +2524,7 @@
           <t>3AL-2,5V, 15143-18</t>
         </is>
       </c>
-      <c r="DF2" t="inlineStr">
+      <c r="DF2" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -2532,7 +2539,7 @@
           <t>3AL-2,5V, 15143-18</t>
         </is>
       </c>
-      <c r="DI2" t="inlineStr">
+      <c r="DI2" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -2547,7 +2554,7 @@
           <t>3AL-2,5V, 15143-18</t>
         </is>
       </c>
-      <c r="DL2" t="inlineStr">
+      <c r="DL2" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -3057,7 +3064,7 @@
           <t>3AL-2,5V, 34-15153-18 №1,2</t>
         </is>
       </c>
-      <c r="HJ2" t="inlineStr">
+      <c r="HJ2" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -3072,7 +3079,7 @@
           <t>3AL-2,5V, 34-15153-18 №1,2</t>
         </is>
       </c>
-      <c r="HM2" t="inlineStr">
+      <c r="HM2" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -3087,7 +3094,7 @@
           <t>3AL-2,5V, 34-15153-18 №1,2</t>
         </is>
       </c>
-      <c r="HP2" t="inlineStr">
+      <c r="HP2" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -3102,7 +3109,7 @@
           <t>3AL-2,5V, 34-15153-18 №1,2</t>
         </is>
       </c>
-      <c r="HS2" t="inlineStr">
+      <c r="HS2" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -3357,7 +3364,7 @@
           <t>6AL-7Nb, 34-15053-18 №9,11</t>
         </is>
       </c>
-      <c r="JR2" s="5" t="inlineStr">
+      <c r="JR2" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -3372,7 +3379,7 @@
           <t>6AL-7Nb, 34-15053-18 №9,11</t>
         </is>
       </c>
-      <c r="JU2" s="5" t="inlineStr">
+      <c r="JU2" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -3387,7 +3394,7 @@
           <t>6AL-7Nb, 34-15053-18 №9,11</t>
         </is>
       </c>
-      <c r="JX2" s="5" t="inlineStr">
+      <c r="JX2" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -3402,7 +3409,7 @@
           <t>6AL-7Nb, 34-15053-18 №9,11</t>
         </is>
       </c>
-      <c r="KA2" s="5" t="inlineStr">
+      <c r="KA2" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -3417,7 +3424,7 @@
           <t>6AL-7Nb, 34-15053-18 №9,11</t>
         </is>
       </c>
-      <c r="KD2" s="5" t="inlineStr">
+      <c r="KD2" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -3432,7 +3439,7 @@
           <t>6AL-7Nb, 34-15053-18 №9,11</t>
         </is>
       </c>
-      <c r="KG2" s="5" t="inlineStr">
+      <c r="KG2" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -3447,7 +3454,7 @@
           <t>6AL-7Nb, 34-15053-18 №9,11</t>
         </is>
       </c>
-      <c r="KJ2" s="5" t="inlineStr">
+      <c r="KJ2" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -3462,7 +3469,7 @@
           <t>6AL-7Nb, 34-15053-18 №9,11</t>
         </is>
       </c>
-      <c r="KM2" s="5" t="inlineStr">
+      <c r="KM2" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -3477,7 +3484,7 @@
           <t>6AL-7Nb, 34-15053-18 №9,11</t>
         </is>
       </c>
-      <c r="KP2" s="5" t="inlineStr">
+      <c r="KP2" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -4027,7 +4034,7 @@
           <t>Э110, 714-18-2слиток</t>
         </is>
       </c>
-      <c r="DF3" t="inlineStr">
+      <c r="DF3" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -4042,7 +4049,7 @@
           <t>Э110, 714-18-2слиток</t>
         </is>
       </c>
-      <c r="DI3" t="inlineStr">
+      <c r="DI3" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -4057,7 +4064,7 @@
           <t>Э110, 714-18-2слиток</t>
         </is>
       </c>
-      <c r="DL3" t="inlineStr">
+      <c r="DL3" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -4567,7 +4574,7 @@
           <t>Э110, 234-18-1</t>
         </is>
       </c>
-      <c r="HJ3" t="inlineStr">
+      <c r="HJ3" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -4582,7 +4589,7 @@
           <t>Э110, 234-18-1</t>
         </is>
       </c>
-      <c r="HM3" t="inlineStr">
+      <c r="HM3" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -4597,7 +4604,7 @@
           <t>Э110, 234-18-1</t>
         </is>
       </c>
-      <c r="HP3" t="inlineStr">
+      <c r="HP3" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -4612,7 +4619,7 @@
           <t>Э110, 234-18-1</t>
         </is>
       </c>
-      <c r="HS3" t="inlineStr">
+      <c r="HS3" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -4867,7 +4874,7 @@
           <t>Э110, 234-18-1</t>
         </is>
       </c>
-      <c r="JR3" s="5" t="inlineStr">
+      <c r="JR3" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -4882,7 +4889,7 @@
           <t>Э110, 234-18-1</t>
         </is>
       </c>
-      <c r="JU3" s="5" t="inlineStr">
+      <c r="JU3" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -4897,7 +4904,7 @@
           <t>Э110, 234-18-1</t>
         </is>
       </c>
-      <c r="JX3" s="5" t="inlineStr">
+      <c r="JX3" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -4912,7 +4919,7 @@
           <t>Э110, 234-18-1</t>
         </is>
       </c>
-      <c r="KA3" s="5" t="inlineStr">
+      <c r="KA3" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -4927,7 +4934,7 @@
           <t>Э110, 234-18-1</t>
         </is>
       </c>
-      <c r="KD3" s="5" t="inlineStr">
+      <c r="KD3" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -4942,7 +4949,7 @@
           <t>Э110, 234-18-1</t>
         </is>
       </c>
-      <c r="KG3" s="5" t="inlineStr">
+      <c r="KG3" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -4957,7 +4964,7 @@
           <t>Э110, 234-18-1</t>
         </is>
       </c>
-      <c r="KJ3" s="5" t="inlineStr">
+      <c r="KJ3" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -4972,7 +4979,7 @@
           <t>Э110, 234-18-1</t>
         </is>
       </c>
-      <c r="KM3" s="5" t="inlineStr">
+      <c r="KM3" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -4987,7 +4994,7 @@
           <t>Э110, 234-18-1</t>
         </is>
       </c>
-      <c r="KP3" s="5" t="inlineStr">
+      <c r="KP3" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -5537,7 +5544,7 @@
           <t>6AL-4V, 34-15023-18 №3</t>
         </is>
       </c>
-      <c r="DF4" t="inlineStr">
+      <c r="DF4" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -5552,7 +5559,7 @@
           <t>6AL-4V, 34-15023-18 №3</t>
         </is>
       </c>
-      <c r="DI4" t="inlineStr">
+      <c r="DI4" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -5567,7 +5574,7 @@
           <t>6AL-4V, 34-15023-18 №3</t>
         </is>
       </c>
-      <c r="DL4" t="inlineStr">
+      <c r="DL4" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -6077,7 +6084,7 @@
           <t>6AL-4V, 34-15023-18 №5</t>
         </is>
       </c>
-      <c r="HJ4" t="inlineStr">
+      <c r="HJ4" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -6092,7 +6099,7 @@
           <t>6AL-4V, 34-15023-18 №5</t>
         </is>
       </c>
-      <c r="HM4" t="inlineStr">
+      <c r="HM4" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -6107,7 +6114,7 @@
           <t>6AL-4V, 34-15023-18 №5</t>
         </is>
       </c>
-      <c r="HP4" t="inlineStr">
+      <c r="HP4" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -6122,7 +6129,7 @@
           <t>6AL-4V, 34-15023-18 №5</t>
         </is>
       </c>
-      <c r="HS4" t="inlineStr">
+      <c r="HS4" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -6377,7 +6384,7 @@
           <t>6AL-4V, 34-8743-18</t>
         </is>
       </c>
-      <c r="JR4" s="5" t="inlineStr">
+      <c r="JR4" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -6392,7 +6399,7 @@
           <t>6AL-4V, 34-8743-18</t>
         </is>
       </c>
-      <c r="JU4" s="5" t="inlineStr">
+      <c r="JU4" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -6407,7 +6414,7 @@
           <t>6AL-4V, 34-8743-18</t>
         </is>
       </c>
-      <c r="JX4" s="5" t="inlineStr">
+      <c r="JX4" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -6422,7 +6429,7 @@
           <t>6AL-4V, 34-8743-18</t>
         </is>
       </c>
-      <c r="KA4" s="5" t="inlineStr">
+      <c r="KA4" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -6437,7 +6444,7 @@
           <t>6AL-4V, 34-8743-18</t>
         </is>
       </c>
-      <c r="KD4" s="5" t="inlineStr">
+      <c r="KD4" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -6452,7 +6459,7 @@
           <t>6AL-4V, 34-8743-18</t>
         </is>
       </c>
-      <c r="KG4" s="5" t="inlineStr">
+      <c r="KG4" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -6467,7 +6474,7 @@
           <t>6AL-4V, 34-8743-18</t>
         </is>
       </c>
-      <c r="KJ4" s="5" t="inlineStr">
+      <c r="KJ4" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -6482,7 +6489,7 @@
           <t>6AL-4V, 34-8743-18</t>
         </is>
       </c>
-      <c r="KM4" s="5" t="inlineStr">
+      <c r="KM4" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -6497,7 +6504,7 @@
           <t>6AL-4V, 34-8743-18</t>
         </is>
       </c>
-      <c r="KP4" s="5" t="inlineStr">
+      <c r="KP4" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -7037,7 +7044,7 @@
           <t>6AL-4V, 34-15023-18</t>
         </is>
       </c>
-      <c r="DF5" t="inlineStr">
+      <c r="DF5" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -7052,7 +7059,7 @@
           <t>6AL-4V, 34-15023-18</t>
         </is>
       </c>
-      <c r="DI5" t="inlineStr">
+      <c r="DI5" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -7067,7 +7074,7 @@
           <t>6AL-4V, 34-15023-18</t>
         </is>
       </c>
-      <c r="DL5" t="inlineStr">
+      <c r="DL5" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -7577,7 +7584,7 @@
           <t>6AL-4V, 34-8923-18 №1</t>
         </is>
       </c>
-      <c r="HJ5" t="inlineStr">
+      <c r="HJ5" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -7592,7 +7599,7 @@
           <t>6AL-4V, 34-8923-18 №1</t>
         </is>
       </c>
-      <c r="HM5" t="inlineStr">
+      <c r="HM5" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -7607,7 +7614,7 @@
           <t>6AL-4V, 34-8923-18 №1</t>
         </is>
       </c>
-      <c r="HP5" t="inlineStr">
+      <c r="HP5" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -7622,7 +7629,7 @@
           <t>6AL-4V, 34-8923-18 №1</t>
         </is>
       </c>
-      <c r="HS5" t="inlineStr">
+      <c r="HS5" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -7877,7 +7884,7 @@
           <t>6AL-4V, 34-8923-18 №1</t>
         </is>
       </c>
-      <c r="JR5" s="5" t="inlineStr">
+      <c r="JR5" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -7892,7 +7899,7 @@
           <t>6AL-4V, 34-8923-18 №1</t>
         </is>
       </c>
-      <c r="JU5" s="5" t="inlineStr">
+      <c r="JU5" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -7907,7 +7914,7 @@
           <t>6AL-4V, 34-8923-18 №1</t>
         </is>
       </c>
-      <c r="JX5" s="5" t="inlineStr">
+      <c r="JX5" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -7922,7 +7929,7 @@
           <t>6AL-4V, 34-8923-18 №1</t>
         </is>
       </c>
-      <c r="KA5" s="5" t="inlineStr">
+      <c r="KA5" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -7937,7 +7944,7 @@
           <t>6AL-4V, 34-8923-18 №1</t>
         </is>
       </c>
-      <c r="KD5" s="5" t="inlineStr">
+      <c r="KD5" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -7952,7 +7959,7 @@
           <t>6AL-4V, 34-8923-18 №1</t>
         </is>
       </c>
-      <c r="KG5" s="5" t="inlineStr">
+      <c r="KG5" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -7967,7 +7974,7 @@
           <t>6AL-4V, 34-8923-18 №1</t>
         </is>
       </c>
-      <c r="KJ5" s="5" t="inlineStr">
+      <c r="KJ5" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -7982,7 +7989,7 @@
           <t>6AL-4V, 34-8923-18 №1</t>
         </is>
       </c>
-      <c r="KM5" s="5" t="inlineStr">
+      <c r="KM5" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -7997,7 +8004,7 @@
           <t>6AL-4V, 34-8923-18 №1</t>
         </is>
       </c>
-      <c r="KP5" s="5" t="inlineStr">
+      <c r="KP5" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -8337,7 +8344,7 @@
           <t>6AL-4V, 34-15093-18 №1,2</t>
         </is>
       </c>
-      <c r="DF6" t="inlineStr">
+      <c r="DF6" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -8352,7 +8359,7 @@
           <t>6AL-4V, 34-15093-18 №1,2</t>
         </is>
       </c>
-      <c r="DI6" t="inlineStr">
+      <c r="DI6" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -8367,7 +8374,7 @@
           <t>6AL-4V, 34-15093-18 №1,2</t>
         </is>
       </c>
-      <c r="DL6" t="inlineStr">
+      <c r="DL6" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -8877,7 +8884,7 @@
           <t>6AL-4V, 34-8813-18 №1,2</t>
         </is>
       </c>
-      <c r="HJ6" t="inlineStr">
+      <c r="HJ6" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -8892,7 +8899,7 @@
           <t>6AL-4V, 34-8813-18 №1,2</t>
         </is>
       </c>
-      <c r="HM6" t="inlineStr">
+      <c r="HM6" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -8907,7 +8914,7 @@
           <t>6AL-4V, 34-8813-18 №1,2</t>
         </is>
       </c>
-      <c r="HP6" t="inlineStr">
+      <c r="HP6" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -8922,7 +8929,7 @@
           <t>6AL-4V, 34-8813-18 №1,2</t>
         </is>
       </c>
-      <c r="HS6" t="inlineStr">
+      <c r="HS6" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -9177,7 +9184,7 @@
           <t>6AL-4V, 34-8843-18 ч1</t>
         </is>
       </c>
-      <c r="JR6" s="5" t="inlineStr">
+      <c r="JR6" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -9192,7 +9199,7 @@
           <t>6AL-4V, 34-8843-18 ч1</t>
         </is>
       </c>
-      <c r="JU6" s="5" t="inlineStr">
+      <c r="JU6" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -9207,7 +9214,7 @@
           <t>6AL-4V, 34-8843-18 ч1</t>
         </is>
       </c>
-      <c r="JX6" s="5" t="inlineStr">
+      <c r="JX6" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -9222,7 +9229,7 @@
           <t>6AL-4V, 34-8843-18 ч1</t>
         </is>
       </c>
-      <c r="KA6" s="5" t="inlineStr">
+      <c r="KA6" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -9237,7 +9244,7 @@
           <t>6AL-4V, 34-8843-18 ч1</t>
         </is>
       </c>
-      <c r="KD6" s="5" t="inlineStr">
+      <c r="KD6" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -9252,7 +9259,7 @@
           <t>6AL-4V, 34-8843-18 ч1</t>
         </is>
       </c>
-      <c r="KG6" s="5" t="inlineStr">
+      <c r="KG6" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -9267,7 +9274,7 @@
           <t>6AL-4V, 34-8843-18 ч1</t>
         </is>
       </c>
-      <c r="KJ6" s="5" t="inlineStr">
+      <c r="KJ6" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -9282,7 +9289,7 @@
           <t>6AL-4V, 34-8843-18 ч1</t>
         </is>
       </c>
-      <c r="KM6" s="5" t="inlineStr">
+      <c r="KM6" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -9297,7 +9304,7 @@
           <t>6AL-4V, 34-8843-18 ч1</t>
         </is>
       </c>
-      <c r="KP6" s="5" t="inlineStr">
+      <c r="KP6" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -9817,7 +9824,7 @@
           <t>6AL-4V, 34-8923-18 №5</t>
         </is>
       </c>
-      <c r="DF7" t="inlineStr">
+      <c r="DF7" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -9832,7 +9839,7 @@
           <t>6AL-4V, 34-8923-18 №5</t>
         </is>
       </c>
-      <c r="DI7" t="inlineStr">
+      <c r="DI7" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -9847,7 +9854,7 @@
           <t>6AL-4V, 34-8923-18 №5</t>
         </is>
       </c>
-      <c r="DL7" t="inlineStr">
+      <c r="DL7" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -10357,7 +10364,7 @@
           <t>6AL-4V, 35-150073-18</t>
         </is>
       </c>
-      <c r="HJ7" t="inlineStr">
+      <c r="HJ7" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -10372,7 +10379,7 @@
           <t>6AL-4V, 35-150073-18</t>
         </is>
       </c>
-      <c r="HM7" t="inlineStr">
+      <c r="HM7" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -10387,7 +10394,7 @@
           <t>6AL-4V, 35-150073-18</t>
         </is>
       </c>
-      <c r="HP7" t="inlineStr">
+      <c r="HP7" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -10402,7 +10409,7 @@
           <t>6AL-4V, 35-150073-18</t>
         </is>
       </c>
-      <c r="HS7" t="inlineStr">
+      <c r="HS7" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -10657,7 +10664,7 @@
           <t>6AL-4V, 35-150073-18</t>
         </is>
       </c>
-      <c r="JR7" s="5" t="inlineStr">
+      <c r="JR7" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -10672,7 +10679,7 @@
           <t>6AL-4V, 35-150073-18</t>
         </is>
       </c>
-      <c r="JU7" s="5" t="inlineStr">
+      <c r="JU7" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -10687,7 +10694,7 @@
           <t>6AL-4V, 35-150073-18</t>
         </is>
       </c>
-      <c r="JX7" s="5" t="inlineStr">
+      <c r="JX7" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -10702,7 +10709,7 @@
           <t>6AL-4V, 35-150073-18</t>
         </is>
       </c>
-      <c r="KA7" s="5" t="inlineStr">
+      <c r="KA7" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -10717,7 +10724,7 @@
           <t>6AL-4V, 35-150073-18</t>
         </is>
       </c>
-      <c r="KD7" s="5" t="inlineStr">
+      <c r="KD7" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -10732,7 +10739,7 @@
           <t>6AL-4V, 35-150073-18</t>
         </is>
       </c>
-      <c r="KG7" s="5" t="inlineStr">
+      <c r="KG7" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -10747,7 +10754,7 @@
           <t>6AL-4V, 35-150073-18</t>
         </is>
       </c>
-      <c r="KJ7" s="5" t="inlineStr">
+      <c r="KJ7" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -10762,7 +10769,7 @@
           <t>6AL-4V, 35-150073-18</t>
         </is>
       </c>
-      <c r="KM7" s="5" t="inlineStr">
+      <c r="KM7" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -10777,7 +10784,7 @@
           <t>6AL-4V, 35-150073-18</t>
         </is>
       </c>
-      <c r="KP7" s="5" t="inlineStr">
+      <c r="KP7" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -11207,7 +11214,7 @@
           <t>ПТ-7М, 5742-18слиток</t>
         </is>
       </c>
-      <c r="DF8" t="inlineStr">
+      <c r="DF8" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -11222,7 +11229,7 @@
           <t>ПТ-7М, 5742-18слиток</t>
         </is>
       </c>
-      <c r="DI8" t="inlineStr">
+      <c r="DI8" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -11237,7 +11244,7 @@
           <t>ПТ-7М, 5742-18слиток</t>
         </is>
       </c>
-      <c r="DL8" t="inlineStr">
+      <c r="DL8" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -11747,7 +11754,7 @@
           <t>ПТ-7М, 5762-18</t>
         </is>
       </c>
-      <c r="HJ8" t="inlineStr">
+      <c r="HJ8" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -11762,7 +11769,7 @@
           <t>ПТ-7М, 5762-18</t>
         </is>
       </c>
-      <c r="HM8" t="inlineStr">
+      <c r="HM8" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -11777,7 +11784,7 @@
           <t>ПТ-7М, 5762-18</t>
         </is>
       </c>
-      <c r="HP8" t="inlineStr">
+      <c r="HP8" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -11792,7 +11799,7 @@
           <t>ПТ-7М, 5762-18</t>
         </is>
       </c>
-      <c r="HS8" t="inlineStr">
+      <c r="HS8" s="5" t="inlineStr">
         <is>
           <t>прерывание</t>
         </is>
@@ -12047,7 +12054,7 @@
           <t>ПТ-7М, 5772-18</t>
         </is>
       </c>
-      <c r="JR8" s="5" t="inlineStr">
+      <c r="JR8" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -12062,7 +12069,7 @@
           <t>ПТ-7М, 5772-18</t>
         </is>
       </c>
-      <c r="JU8" s="5" t="inlineStr">
+      <c r="JU8" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -12077,7 +12084,7 @@
           <t>ПТ-7М, 5772-18</t>
         </is>
       </c>
-      <c r="JX8" s="5" t="inlineStr">
+      <c r="JX8" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -12092,7 +12099,7 @@
           <t>ПТ-7М, 5772-18</t>
         </is>
       </c>
-      <c r="KA8" s="5" t="inlineStr">
+      <c r="KA8" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -12107,7 +12114,7 @@
           <t>ПТ-7М, 5772-18</t>
         </is>
       </c>
-      <c r="KD8" s="5" t="inlineStr">
+      <c r="KD8" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -12122,7 +12129,7 @@
           <t>ПТ-7М, 5772-18</t>
         </is>
       </c>
-      <c r="KG8" s="5" t="inlineStr">
+      <c r="KG8" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -12137,7 +12144,7 @@
           <t>ПТ-7М, 5772-18</t>
         </is>
       </c>
-      <c r="KJ8" s="5" t="inlineStr">
+      <c r="KJ8" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -12152,7 +12159,7 @@
           <t>ПТ-7М, 5772-18</t>
         </is>
       </c>
-      <c r="KM8" s="5" t="inlineStr">
+      <c r="KM8" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
@@ -12167,7 +12174,7 @@
           <t>ПТ-7М, 5772-18</t>
         </is>
       </c>
-      <c r="KP8" s="5" t="inlineStr">
+      <c r="KP8" s="6" t="inlineStr">
         <is>
           <t>Nothing</t>
         </is>
